--- a/trab_marcelo/NLP/valores.xlsx
+++ b/trab_marcelo/NLP/valores.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coisas\Notas4\trab_marcelo\NLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68F13EE-EBE3-4E7D-B5BD-0898C9912244}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$2:$H$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$B$2:$G$37</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="27">
   <si>
     <t>algorithm</t>
   </si>
@@ -84,13 +87,37 @@
   </si>
   <si>
     <t>NN 2048n</t>
+  </si>
+  <si>
+    <t>F1 Score Test</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Drop Na Title</t>
+  </si>
+  <si>
+    <t>Amount of Output</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>NN 4096n</t>
+  </si>
+  <si>
+    <t>NN 8192n</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,16 +132,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -122,23 +169,113 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -415,11 +552,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,11 +572,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -483,13 +620,13 @@
       <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>0.97050000000000003</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>0.60840000000000005</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>0.62549999999999994</v>
       </c>
     </row>
@@ -509,13 +646,13 @@
       <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>0.97070000000000001</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>0.62970000000000004</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>0.61250000000000004</v>
       </c>
     </row>
@@ -535,13 +672,13 @@
       <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>0.93269999999999997</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>0.61099999999999999</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>0.61070000000000002</v>
       </c>
     </row>
@@ -561,18 +698,18 @@
       <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>0.9325</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>0.61539999999999995</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>0.61040000000000005</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -590,13 +727,13 @@
       <c r="E7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>0.96970000000000001</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>0.62519999999999998</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>0.60760000000000003</v>
       </c>
     </row>
@@ -616,13 +753,13 @@
       <c r="E8" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>0.94579999999999997</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>0.61199999999999999</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>0.60629999999999995</v>
       </c>
     </row>
@@ -642,13 +779,13 @@
       <c r="E9" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>0.75360000000000005</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>0.60880000000000001</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>0.60540000000000005</v>
       </c>
     </row>
@@ -668,13 +805,13 @@
       <c r="E10" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>0.91920000000000002</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>0.59179999999999999</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>0.60229999999999995</v>
       </c>
     </row>
@@ -694,13 +831,13 @@
       <c r="E11" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>0.90510000000000002</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>0.59519999999999995</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>0.60129999999999995</v>
       </c>
     </row>
@@ -720,13 +857,13 @@
       <c r="E12" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>0.92030000000000001</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>0.59519999999999995</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>0.60050000000000003</v>
       </c>
     </row>
@@ -746,13 +883,13 @@
       <c r="E13" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>0.94369999999999998</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>0.59970000000000001</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>0.60050000000000003</v>
       </c>
     </row>
@@ -772,13 +909,13 @@
       <c r="E14" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>0.97040000000000004</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>0.60189999999999999</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>0.59970000000000001</v>
       </c>
     </row>
@@ -798,13 +935,13 @@
       <c r="E15" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>0.61770000000000003</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>0.59799999999999998</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <v>0.59889999999999999</v>
       </c>
     </row>
@@ -824,13 +961,13 @@
       <c r="E16" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>0.748</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="1">
         <v>0.60299999999999998</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="1">
         <v>0.59760000000000002</v>
       </c>
     </row>
@@ -850,13 +987,13 @@
       <c r="E17" t="s">
         <v>1</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>0.62180000000000002</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="1">
         <v>0.60060000000000002</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="1">
         <v>0.59730000000000005</v>
       </c>
     </row>
@@ -876,13 +1013,13 @@
       <c r="E18" t="s">
         <v>1</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>0.6351</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <v>0.58379999999999999</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>0.59419999999999995</v>
       </c>
     </row>
@@ -902,13 +1039,13 @@
       <c r="E19" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>0.77449999999999997</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="1">
         <v>0.57599999999999996</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="1">
         <v>0.59179999999999999</v>
       </c>
     </row>
@@ -928,13 +1065,13 @@
       <c r="E20" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>0.91320000000000001</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="1">
         <v>0.58350000000000002</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="1">
         <v>0.59130000000000005</v>
       </c>
     </row>
@@ -954,13 +1091,13 @@
       <c r="E21" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>0.62039999999999995</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="1">
         <v>0.57930000000000004</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="1">
         <v>0.59079999999999999</v>
       </c>
     </row>
@@ -980,13 +1117,13 @@
       <c r="E22" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>0.59019999999999995</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="1">
         <v>0.59379999999999999</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="1">
         <v>0.58120000000000005</v>
       </c>
     </row>
@@ -1006,13 +1143,13 @@
       <c r="E23" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>0.5897</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="1">
         <v>0.58409999999999995</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="1">
         <v>0.57730000000000004</v>
       </c>
     </row>
@@ -1032,13 +1169,13 @@
       <c r="E24" t="s">
         <v>2</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>0.70679999999999998</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="1">
         <v>0.53990000000000005</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="1">
         <v>0.52910000000000001</v>
       </c>
     </row>
@@ -1058,13 +1195,13 @@
       <c r="E25" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>0.90190000000000003</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="1">
         <v>0.52280000000000004</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="1">
         <v>0.52390000000000003</v>
       </c>
     </row>
@@ -1084,13 +1221,13 @@
       <c r="E26" t="s">
         <v>2</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>0.69720000000000004</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="1">
         <v>0.52429999999999999</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="1">
         <v>0.51949999999999996</v>
       </c>
     </row>
@@ -1110,13 +1247,13 @@
       <c r="E27" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <v>0.52429999999999999</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="1">
         <v>0.51870000000000005</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="1">
         <v>0.51490000000000002</v>
       </c>
     </row>
@@ -1136,13 +1273,13 @@
       <c r="E28" t="s">
         <v>1</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <v>0.54530000000000001</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="1">
         <v>0.51219999999999999</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="1">
         <v>0.51419999999999999</v>
       </c>
     </row>
@@ -1162,13 +1299,13 @@
       <c r="E29" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <v>0.88959999999999995</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="1">
         <v>0.52129999999999999</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="1">
         <v>0.51239999999999997</v>
       </c>
     </row>
@@ -1188,13 +1325,13 @@
       <c r="E30" t="s">
         <v>1</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <v>0.54169999999999996</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="1">
         <v>0.5121</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="1">
         <v>0.50990000000000002</v>
       </c>
     </row>
@@ -1214,13 +1351,13 @@
       <c r="E31" t="s">
         <v>3</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <v>0.51819999999999999</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="1">
         <v>0.50770000000000004</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="1">
         <v>0.50680000000000003</v>
       </c>
     </row>
@@ -1240,13 +1377,13 @@
       <c r="E32" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="1">
         <v>0.90780000000000005</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="1">
         <v>0.51390000000000002</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="1">
         <v>0.50129999999999997</v>
       </c>
     </row>
@@ -1266,13 +1403,13 @@
       <c r="E33" t="s">
         <v>2</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="1">
         <v>0.71350000000000002</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="1">
         <v>0.51470000000000005</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="1">
         <v>0.47560000000000002</v>
       </c>
     </row>
@@ -1292,13 +1429,13 @@
       <c r="E34" t="s">
         <v>3</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <v>0.496</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="1">
         <v>0.49919999999999998</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="1">
         <v>0.4627</v>
       </c>
     </row>
@@ -1318,19 +1455,19 @@
       <c r="E35" t="s">
         <v>1</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="1">
         <v>0.53100000000000003</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="1">
         <v>0.50980000000000003</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="1">
         <v>0.45689999999999997</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H35">
-    <sortState ref="A3:H34">
+  <autoFilter ref="A2:H35" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H34">
       <sortCondition descending="1" ref="H2:H34"/>
     </sortState>
   </autoFilter>
@@ -1339,4 +1476,747 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B66F8AC-E2DA-44A4-9122-65A6A6A89B78}">
+  <dimension ref="B1:G38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="2" max="7" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="1.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="8.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0.62880000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0.62549999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.61499999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.61250000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.61070000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0.61040000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0.60760000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.60629999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0.60540000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0.60229999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0.60129999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0.60050000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0.60050000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="13">
+        <v>0.59970000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="13">
+        <v>0.59889999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0.59760000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0.59730000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="13">
+        <v>0.59419999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="13">
+        <v>0.59179999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="13">
+        <v>0.59130000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="13">
+        <v>0.59079999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="13">
+        <v>0.58120000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="13">
+        <v>0.57730000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="13">
+        <v>0.52910000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="13">
+        <v>0.52390000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="13">
+        <v>0.51949999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="13">
+        <v>0.51490000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="13">
+        <v>0.51419999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="13">
+        <v>0.51239999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="13">
+        <v>0.50990000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="13">
+        <v>0.50680000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="13">
+        <v>0.50129999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="13">
+        <v>0.47560000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="13">
+        <v>0.4627</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" s="13">
+        <v>0.45689999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>